--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/agage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67A7D9-C4D3-2044-B107-C92F50A9D3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED3C48-8877-3740-8D49-3939B3BA993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="760" windowWidth="23200" windowHeight="17440" activeTab="8" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="13660" yWindow="500" windowWidth="23200" windowHeight="17440" activeTab="8" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
     <sheet name="CGO" sheetId="1" r:id="rId2"/>
-    <sheet name="THD" sheetId="3" r:id="rId3"/>
-    <sheet name="MHD" sheetId="4" r:id="rId4"/>
-    <sheet name="CMN" sheetId="5" r:id="rId5"/>
-    <sheet name="GSN" sheetId="7" r:id="rId6"/>
-    <sheet name="RPB" sheetId="8" r:id="rId7"/>
-    <sheet name="CMO" sheetId="9" r:id="rId8"/>
-    <sheet name="SMO" sheetId="10" r:id="rId9"/>
+    <sheet name="CMN" sheetId="5" r:id="rId3"/>
+    <sheet name="CMO" sheetId="9" r:id="rId4"/>
+    <sheet name="GSN" sheetId="7" r:id="rId5"/>
+    <sheet name="MHD" sheetId="4" r:id="rId6"/>
+    <sheet name="SMO" sheetId="10" r:id="rId7"/>
+    <sheet name="RPB" sheetId="8" r:id="rId8"/>
+    <sheet name="TAC" sheetId="12" r:id="rId9"/>
+    <sheet name="THD" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="977">
   <si>
     <t>Species</t>
   </si>
@@ -3046,14 +3047,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3091,7 +3088,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3197,7 +3194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3339,7 +3336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3926,2506 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
-  <dimension ref="A1:E148"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="E75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="E79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="E84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="E85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="E87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="E89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="E90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="E92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="E95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="E98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="E102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="E103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="E104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="E107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="E109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="E111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="E113" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="E115" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E119" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E120" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E121" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E122" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="E123" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E125" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="E126" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="E127" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="E128" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E129" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="E130" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="E132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="E133" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="E134" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="E135" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="E136" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="E137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="E139" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E140" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="E141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="E142" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="E143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="E144" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="E145" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="E146" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="E147" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E148" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0E551D-3078-234D-AE1D-6BA1BE098447}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6512,7 +4010,3290 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
+  <dimension ref="A1:E148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E122" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E124" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E127" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E130" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E131" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="E135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E138" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E139" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E140" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E141" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E142" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E143" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E144" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E145" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E146" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E148" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90822AB9-DFAF-A248-A862-C81247904CD1}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -7517,38 +8298,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
-  <dimension ref="A1:D7"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7561,47 +8340,1351 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>654</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>655</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7609,70 +9692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C5A49-F741-1E4F-BB27-83AC24316318}">
   <dimension ref="A1:E180"/>
   <sheetViews>
@@ -10715,34 +12735,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
-  <dimension ref="A1:E38"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B9FCFC-0DE1-0D44-AED8-E3AD500B2B54}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -10759,1978 +12784,6 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
-  <dimension ref="A1:E83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E83" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/agage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Python_Projects\agage-archive\data\agage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED3C48-8877-3740-8D49-3939B3BA993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="500" windowWidth="23200" windowHeight="17440" activeTab="8" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="13665" yWindow="495" windowWidth="23205" windowHeight="17445" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <sheet name="RPB" sheetId="8" r:id="rId8"/>
     <sheet name="TAC" sheetId="12" r:id="rId9"/>
     <sheet name="THD" sheetId="3" r:id="rId10"/>
+    <sheet name="TOB" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="977">
   <si>
     <t>Species</t>
   </si>
@@ -2981,7 +2981,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3032,7 +3032,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3343,38 +3343,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD4142-14B1-9949-B8BF-A847ADC4127D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
     <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
+    <col min="10" max="12" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3924,37 +3924,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0E551D-3078-234D-AE1D-6BA1BE098447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4003,6 +4003,62 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4011,35 +4067,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4056,7 +4112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4073,7 +4129,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4090,7 +4146,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4107,7 +4163,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4124,7 +4180,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4141,7 +4197,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4158,7 +4214,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -4192,7 +4248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4209,7 +4265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -4226,7 +4282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4243,7 +4299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4260,7 +4316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4277,7 +4333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4294,7 +4350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4311,7 +4367,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4328,7 +4384,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4345,7 +4401,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4362,7 +4418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4379,7 +4435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -4396,7 +4452,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -4413,7 +4469,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -4430,7 +4486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4447,7 +4503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -4464,7 +4520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -4481,7 +4537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4498,7 +4554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4515,7 +4571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4532,7 +4588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4549,7 +4605,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -4566,7 +4622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -4583,7 +4639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4600,7 +4656,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -4617,7 +4673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -4634,7 +4690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -4651,7 +4707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -4668,7 +4724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -4685,7 +4741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -4702,7 +4758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4719,7 +4775,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4736,7 +4792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4753,7 +4809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -4770,7 +4826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -4787,7 +4843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -4804,7 +4860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4821,7 +4877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4838,7 +4894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -4855,7 +4911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -4872,7 +4928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -4889,7 +4945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -4906,7 +4962,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -4923,7 +4979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -4940,7 +4996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -4957,7 +5013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -4974,7 +5030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -4991,7 +5047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -5008,7 +5064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5025,7 +5081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -5042,7 +5098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5059,7 +5115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5076,7 +5132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5093,7 +5149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -5110,7 +5166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -5127,7 +5183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5144,7 +5200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -5161,7 +5217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -5178,7 +5234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -5212,7 +5268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -5229,7 +5285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -5246,7 +5302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -5280,7 +5336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -5297,7 +5353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5314,7 +5370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -5331,7 +5387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -5348,7 +5404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -5365,7 +5421,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -5382,7 +5438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -5399,7 +5455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -5416,7 +5472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -5433,7 +5489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
@@ -5467,7 +5523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
@@ -5484,7 +5540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>69</v>
       </c>
@@ -5501,7 +5557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -5518,7 +5574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>69</v>
       </c>
@@ -5535,7 +5591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
@@ -5552,7 +5608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
@@ -5569,7 +5625,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>69</v>
       </c>
@@ -5586,7 +5642,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -5603,7 +5659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
@@ -5620,7 +5676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
@@ -5637,7 +5693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
@@ -5654,7 +5710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
@@ -5671,7 +5727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
@@ -5688,7 +5744,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>80</v>
       </c>
@@ -5705,7 +5761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
@@ -5722,7 +5778,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>80</v>
       </c>
@@ -5739,7 +5795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
@@ -5756,7 +5812,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -5773,7 +5829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -5790,7 +5846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>34</v>
       </c>
@@ -5807,7 +5863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
@@ -5824,7 +5880,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>34</v>
       </c>
@@ -5841,7 +5897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
@@ -5858,7 +5914,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
@@ -5875,7 +5931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
@@ -5892,7 +5948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>34</v>
       </c>
@@ -5909,7 +5965,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
@@ -5926,7 +5982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
@@ -5943,7 +5999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>34</v>
       </c>
@@ -5960,7 +6016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -5977,7 +6033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -5994,7 +6050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -6011,7 +6067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -6028,7 +6084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -6062,7 +6118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -6079,7 +6135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -6096,7 +6152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -6113,7 +6169,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -6130,7 +6186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -6147,7 +6203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -6164,7 +6220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -6181,7 +6237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -6198,7 +6254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -6215,7 +6271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -6232,7 +6288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -6249,7 +6305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -6266,7 +6322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -6283,7 +6339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -6300,7 +6356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -6317,7 +6373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -6334,7 +6390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -6351,7 +6407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -6368,7 +6424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -6385,7 +6441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -6402,7 +6458,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -6419,7 +6475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -6453,7 +6509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -6470,7 +6526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -6487,7 +6543,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -6510,37 +6566,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6554,7 +6610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6568,7 +6624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6582,7 +6638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -6602,35 +6658,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6664,7 +6720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -6681,7 +6737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -6698,7 +6754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -6715,7 +6771,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -6732,7 +6788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -6749,7 +6805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -6766,7 +6822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -6783,7 +6839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -6800,7 +6856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -6817,7 +6873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -6834,7 +6890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -6851,7 +6907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -6868,7 +6924,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6885,7 +6941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -6902,7 +6958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -6919,7 +6975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6936,7 +6992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -6953,7 +7009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -6970,7 +7026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -6987,7 +7043,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -7004,7 +7060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -7021,7 +7077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -7038,7 +7094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -7055,7 +7111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7072,7 +7128,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -7089,7 +7145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -7106,7 +7162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -7123,7 +7179,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -7140,7 +7196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -7157,7 +7213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -7174,7 +7230,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -7191,7 +7247,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -7208,7 +7264,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -7231,36 +7287,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7274,7 +7330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7294,37 +7350,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90822AB9-DFAF-A248-A862-C81247904CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7358,7 +7414,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -7375,7 +7431,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -7392,7 +7448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -7409,7 +7465,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -7426,7 +7482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -7443,7 +7499,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -7460,7 +7516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -7477,7 +7533,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7494,7 +7550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -7511,7 +7567,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -7528,7 +7584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -7545,7 +7601,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -7562,7 +7618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -7579,7 +7635,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -7596,7 +7652,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -7613,7 +7669,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -7630,7 +7686,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -7647,7 +7703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -7664,7 +7720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -7681,7 +7737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -7698,7 +7754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -7715,7 +7771,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -7732,7 +7788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -7749,7 +7805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7766,7 +7822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -7783,7 +7839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -7800,7 +7856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -7817,7 +7873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -7834,7 +7890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -7851,7 +7907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -7868,7 +7924,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -7885,7 +7941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -7902,7 +7958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -7919,7 +7975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -7936,7 +7992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -7953,7 +8009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -7970,7 +8026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -7987,7 +8043,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -8004,7 +8060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -8021,7 +8077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -8038,7 +8094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -8055,7 +8111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -8072,7 +8128,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -8089,7 +8145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -8106,7 +8162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -8123,7 +8179,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -8140,7 +8196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -8174,7 +8230,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -8191,7 +8247,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +8264,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -8225,7 +8281,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8242,7 +8298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -8259,7 +8315,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -8276,7 +8332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -8299,35 +8355,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8344,7 +8400,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -8361,7 +8417,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -8378,7 +8434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -8395,7 +8451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -8412,7 +8468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -8429,7 +8485,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -8446,7 +8502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -8463,7 +8519,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -8480,7 +8536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -8497,7 +8553,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -8514,7 +8570,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -8531,7 +8587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -8548,7 +8604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -8565,7 +8621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -8582,7 +8638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8599,7 +8655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -8616,7 +8672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -8633,7 +8689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -8650,7 +8706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -8667,7 +8723,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -8684,7 +8740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8701,7 +8757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8718,7 +8774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -8735,7 +8791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -8752,7 +8808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -8769,7 +8825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -8786,7 +8842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -8803,7 +8859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -8820,7 +8876,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -8837,7 +8893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -8854,7 +8910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -8871,7 +8927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -8888,7 +8944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -8905,7 +8961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -8922,7 +8978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -8939,7 +8995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -8956,7 +9012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -8973,7 +9029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -8990,7 +9046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -9007,7 +9063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -9024,7 +9080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -9041,7 +9097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -9058,7 +9114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -9075,7 +9131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -9092,7 +9148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -9109,7 +9165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -9126,7 +9182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -9143,7 +9199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -9160,7 +9216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -9177,7 +9233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -9194,7 +9250,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -9211,7 +9267,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -9228,7 +9284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -9245,7 +9301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -9262,7 +9318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -9279,7 +9335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
@@ -9296,7 +9352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -9313,7 +9369,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -9330,7 +9386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -9347,7 +9403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -9364,7 +9420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -9381,7 +9437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -9398,7 +9454,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -9415,7 +9471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -9432,7 +9488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9449,7 +9505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -9466,7 +9522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -9483,7 +9539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -9500,7 +9556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -9517,7 +9573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -9534,7 +9590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -9551,7 +9607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -9568,7 +9624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -9585,7 +9641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -9602,7 +9658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -9619,7 +9675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -9636,7 +9692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -9653,7 +9709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -9670,7 +9726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -9693,35 +9749,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C5A49-F741-1E4F-BB27-83AC24316318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9738,7 +9794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -9755,7 +9811,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9772,7 +9828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -9789,7 +9845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -9806,7 +9862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -9823,7 +9879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -9840,7 +9896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -9857,7 +9913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -9874,7 +9930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -9891,7 +9947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -9908,7 +9964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -9925,7 +9981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -9942,7 +9998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -9959,7 +10015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -9976,7 +10032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -9993,7 +10049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -10010,7 +10066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -10027,7 +10083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -10044,7 +10100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -10061,7 +10117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -10078,7 +10134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -10095,7 +10151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -10112,7 +10168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -10129,7 +10185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -10146,7 +10202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -10163,7 +10219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -10180,7 +10236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -10197,7 +10253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -10214,7 +10270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -10231,7 +10287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -10248,7 +10304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -10265,7 +10321,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -10282,7 +10338,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -10299,7 +10355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -10316,7 +10372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -10333,7 +10389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -10350,7 +10406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -10367,7 +10423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -10384,7 +10440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -10401,7 +10457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -10418,7 +10474,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -10435,7 +10491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -10452,7 +10508,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -10469,7 +10525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -10486,7 +10542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -10503,7 +10559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -10520,7 +10576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10537,7 +10593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -10554,7 +10610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -10571,7 +10627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -10588,7 +10644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -10605,7 +10661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -10622,7 +10678,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -10639,7 +10695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -10656,7 +10712,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -10673,7 +10729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -10690,7 +10746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -10707,7 +10763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -10724,7 +10780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -10741,7 +10797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -10758,7 +10814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -10775,7 +10831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -10792,7 +10848,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -10809,7 +10865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -10826,7 +10882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -10843,7 +10899,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -10860,7 +10916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -10877,7 +10933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -10894,7 +10950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -10911,7 +10967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -10928,7 +10984,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -10945,7 +11001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
@@ -10962,7 +11018,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -10979,7 +11035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
@@ -10996,7 +11052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -11013,7 +11069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -11030,7 +11086,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -11047,7 +11103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -11064,7 +11120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -11081,7 +11137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -11098,7 +11154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -11115,7 +11171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -11132,7 +11188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -11166,7 +11222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
@@ -11183,7 +11239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>34</v>
       </c>
@@ -11200,7 +11256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
@@ -11217,7 +11273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -11234,7 +11290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -11251,7 +11307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -11268,7 +11324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
@@ -11285,7 +11341,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>42</v>
       </c>
@@ -11302,7 +11358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
@@ -11319,7 +11375,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>42</v>
       </c>
@@ -11336,7 +11392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -11353,7 +11409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>42</v>
       </c>
@@ -11370,7 +11426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
@@ -11387,7 +11443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -11404,7 +11460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -11421,7 +11477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
@@ -11438,7 +11494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -11455,7 +11511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -11472,7 +11528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>42</v>
       </c>
@@ -11489,7 +11545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -11506,7 +11562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
@@ -11523,7 +11579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -11540,7 +11596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
@@ -11557,7 +11613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
@@ -11574,7 +11630,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -11591,7 +11647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -11608,7 +11664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
@@ -11625,7 +11681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -11642,7 +11698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
@@ -11659,7 +11715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -11676,7 +11732,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -11693,7 +11749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -11710,7 +11766,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -11727,7 +11783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -11744,7 +11800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
@@ -11761,7 +11817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>56</v>
       </c>
@@ -11778,7 +11834,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -11795,7 +11851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -11812,7 +11868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -11829,7 +11885,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -11846,7 +11902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
@@ -11863,7 +11919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -11880,7 +11936,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -11897,7 +11953,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -11914,7 +11970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -11931,7 +11987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -11948,7 +12004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
@@ -11965,7 +12021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>69</v>
       </c>
@@ -11982,7 +12038,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -11999,7 +12055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -12016,7 +12072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -12033,7 +12089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -12050,7 +12106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>69</v>
       </c>
@@ -12067,7 +12123,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -12084,7 +12140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -12101,7 +12157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>69</v>
       </c>
@@ -12118,7 +12174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -12135,7 +12191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -12152,7 +12208,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -12169,7 +12225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>80</v>
       </c>
@@ -12186,7 +12242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -12203,7 +12259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>80</v>
       </c>
@@ -12220,7 +12276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>80</v>
       </c>
@@ -12237,7 +12293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>80</v>
       </c>
@@ -12254,7 +12310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -12271,7 +12327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>80</v>
       </c>
@@ -12288,7 +12344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>80</v>
       </c>
@@ -12305,7 +12361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>80</v>
       </c>
@@ -12322,7 +12378,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -12339,7 +12395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>80</v>
       </c>
@@ -12356,7 +12412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>80</v>
       </c>
@@ -12373,7 +12429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>80</v>
       </c>
@@ -12390,7 +12446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>34</v>
       </c>
@@ -12407,7 +12463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>34</v>
       </c>
@@ -12424,7 +12480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>34</v>
       </c>
@@ -12441,7 +12497,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>34</v>
       </c>
@@ -12458,7 +12514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>34</v>
       </c>
@@ -12475,7 +12531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>34</v>
       </c>
@@ -12492,7 +12548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>34</v>
       </c>
@@ -12509,7 +12565,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>34</v>
       </c>
@@ -12526,7 +12582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>34</v>
       </c>
@@ -12543,7 +12599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>34</v>
       </c>
@@ -12560,7 +12616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
@@ -12577,7 +12633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>34</v>
       </c>
@@ -12594,7 +12650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>34</v>
       </c>
@@ -12611,7 +12667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
@@ -12628,7 +12684,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
@@ -12645,7 +12701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -12662,7 +12718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -12679,7 +12735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -12696,7 +12752,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -12713,7 +12769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -12736,16 +12792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B9FCFC-0DE1-0D44-AED8-E3AD500B2B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12753,7 +12809,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12761,7 +12817,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -12769,7 +12825,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Python_Projects\agage-archive\data\agage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/agage/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6768D12-6D77-134B-A0FC-8D2323E66B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="495" windowWidth="23205" windowHeight="17445" activeTab="10"/>
+    <workbookView xWindow="11180" yWindow="500" windowWidth="23200" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1000">
   <si>
     <t>Species</t>
   </si>
@@ -2976,13 +2977,82 @@
   </si>
   <si>
     <t>Ray Wang (pers comm., 31/7/23): remove all N2O after Dec. 1995 (i.e. from 1996/01/01 to the end of GAGE period).</t>
+  </si>
+  <si>
+    <t>hfc-134a</t>
+  </si>
+  <si>
+    <t>hfc-152a</t>
+  </si>
+  <si>
+    <t>hfc-365mfc</t>
+  </si>
+  <si>
+    <t>hcfc-22</t>
+  </si>
+  <si>
+    <t>hcfc-141b</t>
+  </si>
+  <si>
+    <t>hcfc-142b</t>
+  </si>
+  <si>
+    <t>h-1211</t>
+  </si>
+  <si>
+    <t>h-1301</t>
+  </si>
+  <si>
+    <t>ch3cl</t>
+  </si>
+  <si>
+    <t>chcl3</t>
+  </si>
+  <si>
+    <t>ccl2ccl2</t>
+  </si>
+  <si>
+    <t>Combined_only</t>
+  </si>
+  <si>
+    <t>GCMS-MteCimone</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:19</t>
+  </si>
+  <si>
+    <t>2023-02-17 00:00</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2023-03-24 00:00</t>
+  </si>
+  <si>
+    <t>2023-04-07 00:00</t>
+  </si>
+  <si>
+    <t>2023-04-28 00:00</t>
+  </si>
+  <si>
+    <t>2023-05-19 00:00</t>
+  </si>
+  <si>
+    <t>2023-06-22 00:00</t>
+  </si>
+  <si>
+    <t>2023-07-22 00:00</t>
+  </si>
+  <si>
+    <t>Interleaving Medusa and ADS data as per Joe Pitt suggestion 18/6/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3003,6 +3073,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3025,14 +3101,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3343,38 +3425,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
     <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.875" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -3408,7 +3490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3425,7 +3507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3442,7 +3524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3459,7 +3541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3476,7 +3558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3493,7 +3575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3510,7 +3592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3527,7 +3609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3561,7 +3643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3578,7 +3660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3595,7 +3677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3612,7 +3694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3629,7 +3711,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3646,7 +3728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3663,7 +3745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3680,7 +3762,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -3697,7 +3779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -3714,7 +3796,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -3731,7 +3813,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,7 +3830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,7 +3847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3782,7 +3864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3799,7 +3881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3816,7 +3898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3833,7 +3915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3850,7 +3932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3949,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -3884,7 +3966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3901,7 +3983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3924,37 +4006,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4053,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +4070,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4011,16 +4093,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4028,7 +4110,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4036,7 +4118,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4126,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4067,35 +4149,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4129,7 +4211,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4146,7 +4228,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4163,7 +4245,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4180,7 +4262,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4197,7 +4279,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4214,7 +4296,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4231,7 +4313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -4248,7 +4330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4265,7 +4347,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -4282,7 +4364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4299,7 +4381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4316,7 +4398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4333,7 +4415,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4350,7 +4432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4367,7 +4449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4384,7 +4466,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4401,7 +4483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4418,7 +4500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,7 +4517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -4452,7 +4534,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -4469,7 +4551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -4486,7 +4568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4503,7 +4585,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -4520,7 +4602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -4537,7 +4619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4554,7 +4636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4571,7 +4653,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4588,7 +4670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4605,7 +4687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -4622,7 +4704,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,7 +4721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4656,7 +4738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -4673,7 +4755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -4690,7 +4772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -4707,7 +4789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -4724,7 +4806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -4741,7 +4823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -4758,7 +4840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4857,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4792,7 +4874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4809,7 +4891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -4826,7 +4908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -4843,7 +4925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -4860,7 +4942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4877,7 +4959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4894,7 +4976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -4911,7 +4993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -4928,7 +5010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -4945,7 +5027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -4962,7 +5044,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -4979,7 +5061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -4996,7 +5078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5013,7 +5095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -5030,7 +5112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,7 +5129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -5064,7 +5146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5081,7 +5163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -5098,7 +5180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5115,7 +5197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5132,7 +5214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5149,7 +5231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -5166,7 +5248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,7 +5265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,7 +5282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -5217,7 +5299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -5234,7 +5316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -5251,7 +5333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -5268,7 +5350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -5285,7 +5367,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -5302,7 +5384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -5319,7 +5401,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -5336,7 +5418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -5353,7 +5435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5370,7 +5452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -5387,7 +5469,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -5404,7 +5486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -5421,7 +5503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -5455,7 +5537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -5472,7 +5554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -5489,7 +5571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -5506,7 +5588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
@@ -5523,7 +5605,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
@@ -5540,7 +5622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>69</v>
       </c>
@@ -5557,7 +5639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -5574,7 +5656,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>69</v>
       </c>
@@ -5591,7 +5673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
@@ -5608,7 +5690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,7 +5707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>69</v>
       </c>
@@ -5642,7 +5724,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -5659,7 +5741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
@@ -5676,7 +5758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
@@ -5693,7 +5775,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
@@ -5710,7 +5792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
@@ -5727,7 +5809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
@@ -5744,7 +5826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>80</v>
       </c>
@@ -5761,7 +5843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
@@ -5778,7 +5860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>80</v>
       </c>
@@ -5795,7 +5877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
@@ -5812,7 +5894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -5829,7 +5911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -5846,7 +5928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>34</v>
       </c>
@@ -5863,7 +5945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
@@ -5880,7 +5962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>34</v>
       </c>
@@ -5897,7 +5979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
@@ -5914,7 +5996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
@@ -5931,7 +6013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
@@ -5948,7 +6030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>34</v>
       </c>
@@ -5965,7 +6047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
@@ -5982,7 +6064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
@@ -5999,7 +6081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>34</v>
       </c>
@@ -6016,7 +6098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -6033,7 +6115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -6050,7 +6132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -6067,7 +6149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -6084,7 +6166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -6101,7 +6183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -6118,7 +6200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -6135,7 +6217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -6152,7 +6234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -6169,7 +6251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -6186,7 +6268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -6203,7 +6285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -6220,7 +6302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -6237,7 +6319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -6254,7 +6336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -6288,7 +6370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -6305,7 +6387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -6322,7 +6404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -6339,7 +6421,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -6356,7 +6438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -6373,7 +6455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -6390,7 +6472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -6407,7 +6489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -6424,7 +6506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -6441,7 +6523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -6458,7 +6540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -6475,7 +6557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -6492,7 +6574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -6509,7 +6591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -6526,7 +6608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -6543,7 +6625,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -6566,37 +6648,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6609,8 +6691,14 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6624,7 +6712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6638,7 +6726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -6650,6 +6738,1206 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F52" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F53" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F56" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F57" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F59" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F65" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -6658,35 +7946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +7991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6720,7 +8008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -6737,7 +8025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -6754,7 +8042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -6771,7 +8059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -6788,7 +8076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -6805,7 +8093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -6822,7 +8110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -6839,7 +8127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -6856,7 +8144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -6873,7 +8161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -6890,7 +8178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,7 +8195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -6924,7 +8212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6941,7 +8229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -6958,7 +8246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -6975,7 +8263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6992,7 +8280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -7009,7 +8297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7026,7 +8314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -7043,7 +8331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -7060,7 +8348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -7077,7 +8365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -7094,7 +8382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -7111,7 +8399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7128,7 +8416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -7145,7 +8433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -7162,7 +8450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -7179,7 +8467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -7196,7 +8484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -7213,7 +8501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -7230,7 +8518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -7247,7 +8535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -7264,7 +8552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -7287,36 +8575,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7330,7 +8618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7350,37 +8638,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +8685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7414,7 +8702,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -7431,7 +8719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -7448,7 +8736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -7465,7 +8753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -7482,7 +8770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -7499,7 +8787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -7516,7 +8804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -7533,7 +8821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7550,7 +8838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -7567,7 +8855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -7584,7 +8872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -7601,7 +8889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -7618,7 +8906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -7635,7 +8923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -7652,7 +8940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -7669,7 +8957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -7686,7 +8974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -7703,7 +8991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -7720,7 +9008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -7737,7 +9025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -7754,7 +9042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -7771,7 +9059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -7788,7 +9076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -7805,7 +9093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7822,7 +9110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -7839,7 +9127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -7856,7 +9144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -7873,7 +9161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -7890,7 +9178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -7907,7 +9195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -7924,7 +9212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -7941,7 +9229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -7958,7 +9246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -7975,7 +9263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -7992,7 +9280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -8009,7 +9297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -8026,7 +9314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -8043,7 +9331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -8060,7 +9348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -8077,7 +9365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -8094,7 +9382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -8111,7 +9399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -8128,7 +9416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -8145,7 +9433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -8162,7 +9450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -8179,7 +9467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -8196,7 +9484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -8213,7 +9501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -8230,7 +9518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -8247,7 +9535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -8264,7 +9552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -8281,7 +9569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8298,7 +9586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -8315,7 +9603,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -8332,7 +9620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -8355,35 +9643,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8400,7 +9688,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -8417,7 +9705,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -8434,7 +9722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -8451,7 +9739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -8468,7 +9756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -8485,7 +9773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -8502,7 +9790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -8519,7 +9807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -8536,7 +9824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -8553,7 +9841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -8570,7 +9858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -8587,7 +9875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -8604,7 +9892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -8621,7 +9909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -8638,7 +9926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8655,7 +9943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -8672,7 +9960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -8689,7 +9977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -8706,7 +9994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -8723,7 +10011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -8740,7 +10028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8757,7 +10045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8774,7 +10062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -8791,7 +10079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -8808,7 +10096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -8825,7 +10113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -8842,7 +10130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -8859,7 +10147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -8876,7 +10164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -8893,7 +10181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -8910,7 +10198,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -8927,7 +10215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -8944,7 +10232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -8961,7 +10249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -8978,7 +10266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -8995,7 +10283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -9012,7 +10300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -9029,7 +10317,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -9046,7 +10334,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -9063,7 +10351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -9080,7 +10368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -9097,7 +10385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -9114,7 +10402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -9131,7 +10419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -9148,7 +10436,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -9165,7 +10453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -9182,7 +10470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -9199,7 +10487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -9216,7 +10504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -9233,7 +10521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -9250,7 +10538,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -9267,7 +10555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -9284,7 +10572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -9301,7 +10589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -9318,7 +10606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -9335,7 +10623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
@@ -9352,7 +10640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -9369,7 +10657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -9386,7 +10674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -9403,7 +10691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -9420,7 +10708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -9437,7 +10725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -9454,7 +10742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -9471,7 +10759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -9488,7 +10776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9505,7 +10793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -9522,7 +10810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -9539,7 +10827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -9556,7 +10844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -9573,7 +10861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -9590,7 +10878,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -9607,7 +10895,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -9624,7 +10912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -9641,7 +10929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -9658,7 +10946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -9675,7 +10963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -9692,7 +10980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -9709,7 +10997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -9726,7 +11014,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -9749,35 +11037,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9794,7 +11082,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -9811,7 +11099,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9828,7 +11116,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -9845,7 +11133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -9862,7 +11150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -9879,7 +11167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -9896,7 +11184,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -9913,7 +11201,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -9930,7 +11218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -9947,7 +11235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -9964,7 +11252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -9981,7 +11269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -9998,7 +11286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -10015,7 +11303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -10032,7 +11320,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -10049,7 +11337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -10066,7 +11354,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -10083,7 +11371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -10100,7 +11388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -10117,7 +11405,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -10134,7 +11422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -10151,7 +11439,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -10168,7 +11456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -10185,7 +11473,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -10202,7 +11490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -10219,7 +11507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -10236,7 +11524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -10253,7 +11541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -10270,7 +11558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -10287,7 +11575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -10304,7 +11592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -10321,7 +11609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -10338,7 +11626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -10355,7 +11643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -10372,7 +11660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -10389,7 +11677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -10406,7 +11694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -10423,7 +11711,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -10440,7 +11728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -10457,7 +11745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -10474,7 +11762,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -10491,7 +11779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -10508,7 +11796,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -10525,7 +11813,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -10542,7 +11830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -10559,7 +11847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -10576,7 +11864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10593,7 +11881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -10610,7 +11898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -10627,7 +11915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -10644,7 +11932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -10661,7 +11949,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -10678,7 +11966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -10695,7 +11983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -10712,7 +12000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -10729,7 +12017,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -10746,7 +12034,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -10763,7 +12051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -10780,7 +12068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -10797,7 +12085,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -10814,7 +12102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -10831,7 +12119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -10848,7 +12136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -10865,7 +12153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -10882,7 +12170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -10899,7 +12187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -10916,7 +12204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -10933,7 +12221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -10950,7 +12238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -10967,7 +12255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -10984,7 +12272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -11001,7 +12289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
@@ -11018,7 +12306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -11035,7 +12323,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
@@ -11052,7 +12340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -11069,7 +12357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -11086,7 +12374,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -11103,7 +12391,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -11120,7 +12408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -11137,7 +12425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -11154,7 +12442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -11171,7 +12459,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -11188,7 +12476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
@@ -11205,7 +12493,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -11222,7 +12510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
@@ -11239,7 +12527,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>34</v>
       </c>
@@ -11256,7 +12544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
@@ -11273,7 +12561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -11290,7 +12578,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -11307,7 +12595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -11324,7 +12612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
@@ -11341,7 +12629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>42</v>
       </c>
@@ -11358,7 +12646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
@@ -11375,7 +12663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>42</v>
       </c>
@@ -11392,7 +12680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -11409,7 +12697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>42</v>
       </c>
@@ -11426,7 +12714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
@@ -11443,7 +12731,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -11460,7 +12748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -11477,7 +12765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
@@ -11494,7 +12782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -11511,7 +12799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -11528,7 +12816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>42</v>
       </c>
@@ -11545,7 +12833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -11562,7 +12850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
@@ -11579,7 +12867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -11596,7 +12884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
@@ -11613,7 +12901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
@@ -11630,7 +12918,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -11647,7 +12935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -11664,7 +12952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
@@ -11681,7 +12969,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -11698,7 +12986,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
@@ -11715,7 +13003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -11732,7 +13020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -11749,7 +13037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -11766,7 +13054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -11783,7 +13071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -11800,7 +13088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
@@ -11817,7 +13105,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>56</v>
       </c>
@@ -11834,7 +13122,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -11851,7 +13139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -11868,7 +13156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -11885,7 +13173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -11902,7 +13190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
@@ -11919,7 +13207,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -11936,7 +13224,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -11953,7 +13241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -11970,7 +13258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -11987,7 +13275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -12004,7 +13292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
@@ -12021,7 +13309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>69</v>
       </c>
@@ -12038,7 +13326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -12055,7 +13343,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -12072,7 +13360,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -12089,7 +13377,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -12106,7 +13394,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>69</v>
       </c>
@@ -12123,7 +13411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -12140,7 +13428,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -12157,7 +13445,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>69</v>
       </c>
@@ -12174,7 +13462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -12191,7 +13479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -12208,7 +13496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -12225,7 +13513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>80</v>
       </c>
@@ -12242,7 +13530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -12259,7 +13547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>80</v>
       </c>
@@ -12276,7 +13564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>80</v>
       </c>
@@ -12293,7 +13581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>80</v>
       </c>
@@ -12310,7 +13598,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -12327,7 +13615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>80</v>
       </c>
@@ -12344,7 +13632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>80</v>
       </c>
@@ -12361,7 +13649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>80</v>
       </c>
@@ -12378,7 +13666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -12395,7 +13683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>80</v>
       </c>
@@ -12412,7 +13700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>80</v>
       </c>
@@ -12429,7 +13717,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>80</v>
       </c>
@@ -12446,7 +13734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>34</v>
       </c>
@@ -12463,7 +13751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>34</v>
       </c>
@@ -12480,7 +13768,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>34</v>
       </c>
@@ -12497,7 +13785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>34</v>
       </c>
@@ -12514,7 +13802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>34</v>
       </c>
@@ -12531,7 +13819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>34</v>
       </c>
@@ -12548,7 +13836,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>34</v>
       </c>
@@ -12565,7 +13853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>34</v>
       </c>
@@ -12582,7 +13870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>34</v>
       </c>
@@ -12599,7 +13887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>34</v>
       </c>
@@ -12616,7 +13904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
@@ -12633,7 +13921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>34</v>
       </c>
@@ -12650,7 +13938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>34</v>
       </c>
@@ -12667,7 +13955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
@@ -12684,7 +13972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
@@ -12701,7 +13989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -12718,7 +14006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -12735,7 +14023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -12752,7 +14040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -12769,7 +14057,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -12792,16 +14080,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12809,7 +14097,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12817,7 +14105,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -12825,7 +14113,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/agage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp43046\user\home\zh21490\agage-archive\data\agage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6768D12-6D77-134B-A0FC-8D2323E66B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B39A74-B040-438C-9052-B2CD7AEAA8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="500" windowWidth="23200" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="THD" sheetId="3" r:id="rId10"/>
     <sheet name="TOB" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1012">
   <si>
     <t>Species</t>
   </si>
@@ -3046,6 +3046,42 @@
   </si>
   <si>
     <t>Interleaving Medusa and ADS data as per Joe Pitt suggestion 18/6/24</t>
+  </si>
+  <si>
+    <t>hfc-143a</t>
+  </si>
+  <si>
+    <t>hfc-227ea</t>
+  </si>
+  <si>
+    <t>hfc-245fa</t>
+  </si>
+  <si>
+    <t>hcfc-132b</t>
+  </si>
+  <si>
+    <t>hcfc-133a</t>
+  </si>
+  <si>
+    <t>so2f2</t>
+  </si>
+  <si>
+    <t>c3f8</t>
+  </si>
+  <si>
+    <t>c4f8</t>
+  </si>
+  <si>
+    <t>Misnamed run (email from Jgor Arduini 2024-06-18)</t>
+  </si>
+  <si>
+    <t>2023-03-21 17:13</t>
+  </si>
+  <si>
+    <t>2023-03-21 19:10</t>
+  </si>
+  <si>
+    <t>2023-08-22 00:01</t>
   </si>
 </sst>
 </file>
@@ -3428,35 +3464,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
     <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
+    <col min="10" max="12" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -3490,7 +3526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3543,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3524,7 +3560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3541,7 +3577,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3558,7 +3594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3575,7 +3611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3592,7 +3628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3609,7 +3645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3626,7 +3662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3696,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3694,7 +3730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,7 +3747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3728,7 +3764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3745,7 +3781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -3779,7 +3815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -3796,7 +3832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -3813,7 +3849,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -3830,7 +3866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3847,7 +3883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3881,7 +3917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3898,7 +3934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3915,7 +3951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +3968,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3949,7 +3985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -3966,7 +4002,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3983,7 +4019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4013,30 +4049,30 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4070,7 +4106,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4100,9 +4136,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4110,7 +4146,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +4154,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4162,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4156,28 +4192,28 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4194,7 +4230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4211,7 +4247,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4262,7 +4298,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4296,7 +4332,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4313,7 +4349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4366,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4347,7 +4383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -4364,7 +4400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4381,7 +4417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4398,7 +4434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4415,7 +4451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4432,7 +4468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4449,7 +4485,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4466,7 +4502,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4483,7 +4519,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4500,7 +4536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4517,7 +4553,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -4534,7 +4570,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -4568,7 +4604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4585,7 +4621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -4602,7 +4638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -4619,7 +4655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,7 +4672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4653,7 +4689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4687,7 +4723,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -4721,7 +4757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4738,7 +4774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -4755,7 +4791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -4772,7 +4808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -4789,7 +4825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -4806,7 +4842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -4823,7 +4859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -4840,7 +4876,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4857,7 +4893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4874,7 +4910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4891,7 +4927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -4908,7 +4944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +4961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -4942,7 +4978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4959,7 +4995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4976,7 +5012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -4993,7 +5029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -5010,7 +5046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -5027,7 +5063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -5044,7 +5080,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5061,7 +5097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -5078,7 +5114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5095,7 +5131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -5112,7 +5148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5129,7 +5165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -5146,7 +5182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5163,7 +5199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -5180,7 +5216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5197,7 +5233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5214,7 +5250,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5231,7 +5267,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -5248,7 +5284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -5265,7 +5301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5282,7 +5318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -5299,7 +5335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -5316,7 +5352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -5333,7 +5369,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -5350,7 +5386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -5367,7 +5403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -5384,7 +5420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -5401,7 +5437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -5418,7 +5454,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -5435,7 +5471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5452,7 +5488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -5469,7 +5505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -5486,7 +5522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -5520,7 +5556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -5537,7 +5573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -5554,7 +5590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -5571,7 +5607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -5588,7 +5624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
@@ -5605,7 +5641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,7 +5658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>69</v>
       </c>
@@ -5639,7 +5675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -5656,7 +5692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>69</v>
       </c>
@@ -5673,7 +5709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
@@ -5690,7 +5726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
@@ -5707,7 +5743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>69</v>
       </c>
@@ -5724,7 +5760,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -5741,7 +5777,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
@@ -5758,7 +5794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
@@ -5775,7 +5811,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
@@ -5792,7 +5828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
@@ -5809,7 +5845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
@@ -5826,7 +5862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>80</v>
       </c>
@@ -5843,7 +5879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
@@ -5860,7 +5896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>80</v>
       </c>
@@ -5877,7 +5913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
@@ -5894,7 +5930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -5911,7 +5947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -5928,7 +5964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>34</v>
       </c>
@@ -5945,7 +5981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
@@ -5962,7 +5998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>34</v>
       </c>
@@ -5979,7 +6015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
@@ -5996,7 +6032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
@@ -6013,7 +6049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
@@ -6030,7 +6066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>34</v>
       </c>
@@ -6047,7 +6083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
@@ -6064,7 +6100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
@@ -6081,7 +6117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>34</v>
       </c>
@@ -6098,7 +6134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -6132,7 +6168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -6149,7 +6185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -6166,7 +6202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -6183,7 +6219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -6200,7 +6236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -6217,7 +6253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -6234,7 +6270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -6251,7 +6287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -6268,7 +6304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -6285,7 +6321,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -6302,7 +6338,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -6319,7 +6355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -6336,7 +6372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -6353,7 +6389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -6370,7 +6406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -6387,7 +6423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -6404,7 +6440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -6421,7 +6457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -6438,7 +6474,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -6455,7 +6491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -6472,7 +6508,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -6506,7 +6542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -6523,7 +6559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -6540,7 +6576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -6557,7 +6593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -6574,7 +6610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -6591,7 +6627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -6608,7 +6644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -6625,7 +6661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -6649,36 +6685,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6698,7 +6734,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6712,7 +6748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6726,7 +6762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -6740,7 +6776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -6760,7 +6796,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>977</v>
       </c>
@@ -6780,7 +6816,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>978</v>
       </c>
@@ -6800,7 +6836,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>979</v>
       </c>
@@ -6820,7 +6856,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>980</v>
       </c>
@@ -6840,7 +6876,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>981</v>
       </c>
@@ -6860,7 +6896,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>982</v>
       </c>
@@ -6880,7 +6916,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>983</v>
       </c>
@@ -6900,7 +6936,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>984</v>
       </c>
@@ -6920,7 +6956,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>985</v>
       </c>
@@ -6940,7 +6976,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -6960,7 +6996,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +7016,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>986</v>
       </c>
@@ -7000,7 +7036,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -7020,7 +7056,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>987</v>
       </c>
@@ -7040,7 +7076,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -7060,7 +7096,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>977</v>
       </c>
@@ -7080,7 +7116,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>978</v>
       </c>
@@ -7100,7 +7136,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>979</v>
       </c>
@@ -7120,7 +7156,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>980</v>
       </c>
@@ -7140,7 +7176,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>981</v>
       </c>
@@ -7160,7 +7196,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>982</v>
       </c>
@@ -7180,7 +7216,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>983</v>
       </c>
@@ -7200,7 +7236,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>984</v>
       </c>
@@ -7220,7 +7256,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>985</v>
       </c>
@@ -7240,7 +7276,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -7260,7 +7296,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -7280,7 +7316,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>986</v>
       </c>
@@ -7300,7 +7336,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -7320,7 +7356,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>987</v>
       </c>
@@ -7340,7 +7376,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7396,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>977</v>
       </c>
@@ -7380,7 +7416,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>978</v>
       </c>
@@ -7400,7 +7436,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>979</v>
       </c>
@@ -7420,7 +7456,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>980</v>
       </c>
@@ -7440,7 +7476,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>981</v>
       </c>
@@ -7460,7 +7496,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>982</v>
       </c>
@@ -7480,7 +7516,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>983</v>
       </c>
@@ -7500,7 +7536,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>984</v>
       </c>
@@ -7520,7 +7556,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>985</v>
       </c>
@@ -7540,7 +7576,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
@@ -7560,7 +7596,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -7580,7 +7616,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>986</v>
       </c>
@@ -7600,7 +7636,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
@@ -7620,7 +7656,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>987</v>
       </c>
@@ -7640,7 +7676,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -7660,7 +7696,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>977</v>
       </c>
@@ -7680,7 +7716,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>978</v>
       </c>
@@ -7700,7 +7736,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>979</v>
       </c>
@@ -7720,7 +7756,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>980</v>
       </c>
@@ -7740,7 +7776,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>981</v>
       </c>
@@ -7760,7 +7796,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>982</v>
       </c>
@@ -7780,7 +7816,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>983</v>
       </c>
@@ -7800,7 +7836,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>984</v>
       </c>
@@ -7820,7 +7856,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>985</v>
       </c>
@@ -7840,7 +7876,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -7860,7 +7896,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -7880,7 +7916,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>986</v>
       </c>
@@ -7900,7 +7936,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -7920,7 +7956,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>987</v>
       </c>
@@ -7938,6 +7974,1026 @@
       </c>
       <c r="F67" t="s">
         <v>992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>981</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>982</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>983</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>984</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>985</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>986</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>987</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>981</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>982</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>983</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>984</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>985</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>986</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>987</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -7953,28 +9009,28 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7991,7 +9047,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -8008,7 +9064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -8025,7 +9081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -8042,7 +9098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -8059,7 +9115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -8076,7 +9132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -8093,7 +9149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -8110,7 +9166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -8127,7 +9183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -8144,7 +9200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -8161,7 +9217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -8178,7 +9234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -8195,7 +9251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -8212,7 +9268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8229,7 +9285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -8246,7 +9302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -8263,7 +9319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -8280,7 +9336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -8297,7 +9353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -8314,7 +9370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -8331,7 +9387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -8348,7 +9404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -8365,7 +9421,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -8382,7 +9438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -8399,7 +9455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -8416,7 +9472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -8433,7 +9489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -8450,7 +9506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -8467,7 +9523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -8484,7 +9540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -8501,7 +9557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -8518,7 +9574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -8535,7 +9591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -8552,7 +9608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -8582,29 +9638,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8618,7 +9674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8641,34 +9697,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8685,7 +9741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8702,7 +9758,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -8719,7 +9775,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -8736,7 +9792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -8753,7 +9809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -8770,7 +9826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -8787,7 +9843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -8804,7 +9860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -8821,7 +9877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -8838,7 +9894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -8855,7 +9911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -8872,7 +9928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -8889,7 +9945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -8906,7 +9962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -8923,7 +9979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8940,7 +9996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -8957,7 +10013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -8974,7 +10030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -8991,7 +10047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -9008,7 +10064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -9025,7 +10081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -9042,7 +10098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -9059,7 +10115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +10132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -9093,7 +10149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -9110,7 +10166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -9127,7 +10183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -9144,7 +10200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -9161,7 +10217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -9178,7 +10234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -9195,7 +10251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -9212,7 +10268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -9229,7 +10285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -9246,7 +10302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -9263,7 +10319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -9280,7 +10336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -9297,7 +10353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -9314,7 +10370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -9331,7 +10387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -9348,7 +10404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -9365,7 +10421,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -9382,7 +10438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -9399,7 +10455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -9416,7 +10472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -9433,7 +10489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -9450,7 +10506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -9467,7 +10523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -9484,7 +10540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -9501,7 +10557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -9518,7 +10574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -9535,7 +10591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -9552,7 +10608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -9569,7 +10625,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -9586,7 +10642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -9603,7 +10659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -9620,7 +10676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -9650,28 +10706,28 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9688,7 +10744,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -9705,7 +10761,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9722,7 +10778,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -9739,7 +10795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -9756,7 +10812,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -9773,7 +10829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -9790,7 +10846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -9807,7 +10863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -9824,7 +10880,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -9841,7 +10897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -9858,7 +10914,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -9875,7 +10931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -9892,7 +10948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -9909,7 +10965,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -9926,7 +10982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -9943,7 +10999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -9960,7 +11016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -9977,7 +11033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -9994,7 +11050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -10011,7 +11067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -10028,7 +11084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -10045,7 +11101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10062,7 +11118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -10079,7 +11135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -10096,7 +11152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -10113,7 +11169,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -10130,7 +11186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -10147,7 +11203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -10164,7 +11220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -10181,7 +11237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -10198,7 +11254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -10215,7 +11271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -10232,7 +11288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -10249,7 +11305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -10266,7 +11322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -10283,7 +11339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -10300,7 +11356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -10317,7 +11373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -10334,7 +11390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -10351,7 +11407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -10368,7 +11424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -10385,7 +11441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -10402,7 +11458,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -10419,7 +11475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -10436,7 +11492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -10453,7 +11509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -10470,7 +11526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -10487,7 +11543,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -10504,7 +11560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -10521,7 +11577,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -10538,7 +11594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -10555,7 +11611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -10572,7 +11628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -10589,7 +11645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -10606,7 +11662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -10623,7 +11679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
@@ -10640,7 +11696,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -10657,7 +11713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -10674,7 +11730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -10691,7 +11747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -10708,7 +11764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -10725,7 +11781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -10742,7 +11798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -10759,7 +11815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -10776,7 +11832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -10793,7 +11849,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -10810,7 +11866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -10827,7 +11883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -10844,7 +11900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -10861,7 +11917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -10878,7 +11934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -10895,7 +11951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -10912,7 +11968,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -10929,7 +11985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -10946,7 +12002,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -10963,7 +12019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -10980,7 +12036,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -10997,7 +12053,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -11014,7 +12070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -11044,28 +12100,28 @@
       <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11082,7 +12138,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -11099,7 +12155,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -11116,7 +12172,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -11133,7 +12189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -11150,7 +12206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -11167,7 +12223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -11184,7 +12240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -11201,7 +12257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -11218,7 +12274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -11235,7 +12291,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -11252,7 +12308,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -11269,7 +12325,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -11286,7 +12342,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -11303,7 +12359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -11320,7 +12376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -11337,7 +12393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -11354,7 +12410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -11371,7 +12427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -11388,7 +12444,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -11405,7 +12461,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -11422,7 +12478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -11439,7 +12495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -11456,7 +12512,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -11473,7 +12529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -11490,7 +12546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -11507,7 +12563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -11524,7 +12580,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -11541,7 +12597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -11558,7 +12614,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -11575,7 +12631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -11592,7 +12648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -11609,7 +12665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -11626,7 +12682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -11643,7 +12699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -11660,7 +12716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -11677,7 +12733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -11694,7 +12750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -11711,7 +12767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -11728,7 +12784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -11745,7 +12801,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -11762,7 +12818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -11779,7 +12835,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -11796,7 +12852,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -11813,7 +12869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -11830,7 +12886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -11847,7 +12903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -11864,7 +12920,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -11881,7 +12937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -11898,7 +12954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -11915,7 +12971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -11932,7 +12988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -11949,7 +13005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -11966,7 +13022,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -11983,7 +13039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -12000,7 +13056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -12017,7 +13073,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -12034,7 +13090,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -12051,7 +13107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -12068,7 +13124,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -12085,7 +13141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -12102,7 +13158,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12119,7 +13175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -12136,7 +13192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -12153,7 +13209,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -12170,7 +13226,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -12187,7 +13243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -12204,7 +13260,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -12221,7 +13277,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -12238,7 +13294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -12255,7 +13311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -12272,7 +13328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -12289,7 +13345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
@@ -12306,7 +13362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -12323,7 +13379,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
@@ -12340,7 +13396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -12357,7 +13413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -12374,7 +13430,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -12391,7 +13447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -12408,7 +13464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -12425,7 +13481,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -12442,7 +13498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -12459,7 +13515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -12476,7 +13532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
@@ -12493,7 +13549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -12510,7 +13566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
@@ -12527,7 +13583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>34</v>
       </c>
@@ -12544,7 +13600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
@@ -12561,7 +13617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -12578,7 +13634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -12595,7 +13651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -12612,7 +13668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
@@ -12629,7 +13685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>42</v>
       </c>
@@ -12646,7 +13702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
@@ -12663,7 +13719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>42</v>
       </c>
@@ -12680,7 +13736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -12697,7 +13753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>42</v>
       </c>
@@ -12714,7 +13770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
@@ -12731,7 +13787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -12748,7 +13804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -12765,7 +13821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
@@ -12782,7 +13838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -12799,7 +13855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -12816,7 +13872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>42</v>
       </c>
@@ -12833,7 +13889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -12850,7 +13906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
@@ -12867,7 +13923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -12884,7 +13940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
@@ -12901,7 +13957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
@@ -12918,7 +13974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -12935,7 +13991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -12952,7 +14008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
@@ -12969,7 +14025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -12986,7 +14042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
@@ -13003,7 +14059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -13020,7 +14076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -13037,7 +14093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -13054,7 +14110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -13071,7 +14127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -13088,7 +14144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
@@ -13105,7 +14161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>56</v>
       </c>
@@ -13122,7 +14178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -13139,7 +14195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -13156,7 +14212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -13173,7 +14229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -13190,7 +14246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
@@ -13207,7 +14263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -13224,7 +14280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -13241,7 +14297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -13258,7 +14314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -13275,7 +14331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -13292,7 +14348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
@@ -13309,7 +14365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>69</v>
       </c>
@@ -13326,7 +14382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -13343,7 +14399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -13360,7 +14416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -13377,7 +14433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -13394,7 +14450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>69</v>
       </c>
@@ -13411,7 +14467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -13428,7 +14484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -13445,7 +14501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>69</v>
       </c>
@@ -13462,7 +14518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -13479,7 +14535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -13496,7 +14552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -13513,7 +14569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>80</v>
       </c>
@@ -13530,7 +14586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -13547,7 +14603,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>80</v>
       </c>
@@ -13564,7 +14620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>80</v>
       </c>
@@ -13581,7 +14637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>80</v>
       </c>
@@ -13598,7 +14654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -13615,7 +14671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>80</v>
       </c>
@@ -13632,7 +14688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>80</v>
       </c>
@@ -13649,7 +14705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>80</v>
       </c>
@@ -13666,7 +14722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -13683,7 +14739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>80</v>
       </c>
@@ -13700,7 +14756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>80</v>
       </c>
@@ -13717,7 +14773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>80</v>
       </c>
@@ -13734,7 +14790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>34</v>
       </c>
@@ -13751,7 +14807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>34</v>
       </c>
@@ -13768,7 +14824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>34</v>
       </c>
@@ -13785,7 +14841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>34</v>
       </c>
@@ -13802,7 +14858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>34</v>
       </c>
@@ -13819,7 +14875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>34</v>
       </c>
@@ -13836,7 +14892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>34</v>
       </c>
@@ -13853,7 +14909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>34</v>
       </c>
@@ -13870,7 +14926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>34</v>
       </c>
@@ -13887,7 +14943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>34</v>
       </c>
@@ -13904,7 +14960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
@@ -13921,7 +14977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>34</v>
       </c>
@@ -13938,7 +14994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>34</v>
       </c>
@@ -13955,7 +15011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
@@ -13972,7 +15028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
@@ -13989,7 +15045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -14006,7 +15062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -14023,7 +15079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -14040,7 +15096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -14057,7 +15113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -14087,9 +15143,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14097,7 +15153,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -14105,7 +15161,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -14113,7 +15169,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp43046\user\home\zh21490\agage-archive\data\agage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B39A74-B040-438C-9052-B2CD7AEAA8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA58694-107B-4019-8D68-84E327C2F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="CMN" sheetId="5" r:id="rId3"/>
     <sheet name="CMO" sheetId="9" r:id="rId4"/>
     <sheet name="GSN" sheetId="7" r:id="rId5"/>
-    <sheet name="MHD" sheetId="4" r:id="rId6"/>
-    <sheet name="SMO" sheetId="10" r:id="rId7"/>
+    <sheet name="SMO" sheetId="10" r:id="rId6"/>
+    <sheet name="MHD" sheetId="4" r:id="rId7"/>
     <sheet name="RPB" sheetId="8" r:id="rId8"/>
     <sheet name="TAC" sheetId="12" r:id="rId9"/>
     <sheet name="THD" sheetId="3" r:id="rId10"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1017">
   <si>
     <t>Species</t>
   </si>
@@ -3082,6 +3082,21 @@
   </si>
   <si>
     <t>2023-08-22 00:01</t>
+  </si>
+  <si>
+    <t>2023-05-17 00:00</t>
+  </si>
+  <si>
+    <t>cf4</t>
+  </si>
+  <si>
+    <t>2022-04-20 00:00</t>
+  </si>
+  <si>
+    <t>2022-12-10 00:00</t>
+  </si>
+  <si>
+    <t>From Ray Wang's table</t>
   </si>
 </sst>
 </file>
@@ -4130,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4179,6 +4194,21 @@
         <v>107</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4186,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6678,6 +6708,23 @@
         <v>108</v>
       </c>
     </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6687,8 +6734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6739,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>989</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6753,7 +6800,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>989</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -6767,7 +6814,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>989</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -9694,6 +9741,1400 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -10690,1400 +12131,6 @@
         <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E83" t="s">
         <v>108</v>
       </c>
     </row>

--- a/data/agage/data_exclude.xlsx
+++ b/data/agage/data_exclude.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp43046\user\home\zh21490\agage-archive\data\agage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/agage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA58694-107B-4019-8D68-84E327C2F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC3099-CB9B-3C47-A9B2-077F5F71FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADR" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="1029">
   <si>
     <t>Species</t>
   </si>
@@ -3097,13 +3097,49 @@
   </si>
   <si>
     <t>From Ray Wang's table</t>
+  </si>
+  <si>
+    <t>GCTOFMS</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:01</t>
+  </si>
+  <si>
+    <t>2022-09-17 00:00</t>
+  </si>
+  <si>
+    <t>only release FasQuad data after mass spec change</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:02</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:03</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:04</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:05</t>
+  </si>
+  <si>
+    <t>2022-11-01 00:00</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:06</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:07</t>
+  </si>
+  <si>
+    <t>uncorrected drift in quaternery fixed in July 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3131,6 +3167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3152,7 +3194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3161,6 +3203,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3483,31 +3528,31 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
     <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.875" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -3541,7 +3586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3558,7 +3603,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3575,7 +3620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3592,7 +3637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3626,7 +3671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,7 +3722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3694,7 +3739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3711,7 +3756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3728,7 +3773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3745,7 +3790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3762,7 +3807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3779,7 +3824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3796,7 +3841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3813,7 +3858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -3830,7 +3875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -3847,7 +3892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -3864,7 +3909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -3881,7 +3926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3898,7 +3943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3915,7 +3960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +3977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3949,7 +3994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3966,7 +4011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3983,7 +4028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4000,7 +4045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -4017,7 +4062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -4034,7 +4079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4064,30 +4109,30 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +4149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4121,7 +4166,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4145,15 +4190,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4161,7 +4210,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4169,7 +4218,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4177,7 +4226,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4194,7 +4243,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>981</v>
       </c>
@@ -4207,7 +4256,128 @@
       <c r="D5" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>983</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1020</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,32 +4388,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4277,7 +4447,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4294,7 +4464,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4311,7 +4481,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4328,7 +4498,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4345,7 +4515,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4362,7 +4532,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4379,7 +4549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -4396,7 +4566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4413,7 +4583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -4430,7 +4600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4447,7 +4617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4464,7 +4634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4481,7 +4651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4498,7 +4668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4515,7 +4685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4532,7 +4702,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4549,7 +4719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4566,7 +4736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4583,7 +4753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -4600,7 +4770,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -4617,7 +4787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -4634,7 +4804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4651,7 +4821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,7 +4838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -4685,7 +4855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4702,7 +4872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,7 +4889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4736,7 +4906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4753,7 +4923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -4770,7 +4940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -4787,7 +4957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4804,7 +4974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -4821,7 +4991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -4838,7 +5008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +5025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -4872,7 +5042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -4889,7 +5059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -4906,7 +5076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4923,7 +5093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4940,7 +5110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4957,7 +5127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -4974,7 +5144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -4991,7 +5161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -5008,7 +5178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -5025,7 +5195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -5042,7 +5212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -5059,7 +5229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -5076,7 +5246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -5093,7 +5263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -5110,7 +5280,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5127,7 +5297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -5144,7 +5314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5161,7 +5331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -5178,7 +5348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5195,7 +5365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -5212,7 +5382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5229,7 +5399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -5246,7 +5416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5263,7 +5433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5280,7 +5450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5297,7 +5467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -5314,7 +5484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -5331,7 +5501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5348,7 +5518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -5365,7 +5535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -5382,7 +5552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -5399,7 +5569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -5416,7 +5586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -5433,7 +5603,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -5467,7 +5637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -5484,7 +5654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -5501,7 +5671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5518,7 +5688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -5535,7 +5705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -5552,7 +5722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -5569,7 +5739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -5586,7 +5756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -5603,7 +5773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -5620,7 +5790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -5637,7 +5807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -5654,7 +5824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
@@ -5671,7 +5841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
@@ -5688,7 +5858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>69</v>
       </c>
@@ -5705,7 +5875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -5722,7 +5892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>69</v>
       </c>
@@ -5739,7 +5909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
@@ -5756,7 +5926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
@@ -5773,7 +5943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>69</v>
       </c>
@@ -5790,7 +5960,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -5807,7 +5977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
@@ -5824,7 +5994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
@@ -5841,7 +6011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
@@ -5858,7 +6028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
@@ -5875,7 +6045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
@@ -5892,7 +6062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>80</v>
       </c>
@@ -5909,7 +6079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
@@ -5926,7 +6096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>80</v>
       </c>
@@ -5943,7 +6113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
@@ -5960,7 +6130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -5977,7 +6147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -5994,7 +6164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>34</v>
       </c>
@@ -6011,7 +6181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
@@ -6028,7 +6198,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
@@ -6062,7 +6232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
@@ -6079,7 +6249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
@@ -6096,7 +6266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>34</v>
       </c>
@@ -6113,7 +6283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
@@ -6130,7 +6300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
@@ -6147,7 +6317,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>34</v>
       </c>
@@ -6164,7 +6334,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -6181,7 +6351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -6198,7 +6368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -6215,7 +6385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -6232,7 +6402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -6249,7 +6419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -6266,7 +6436,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -6283,7 +6453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -6300,7 +6470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -6317,7 +6487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -6334,7 +6504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -6351,7 +6521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -6368,7 +6538,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -6385,7 +6555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -6402,7 +6572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -6419,7 +6589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -6453,7 +6623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -6470,7 +6640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -6487,7 +6657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -6504,7 +6674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -6521,7 +6691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -6538,7 +6708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +6725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -6572,7 +6742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -6589,7 +6759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -6606,7 +6776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -6623,7 +6793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -6640,7 +6810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -6657,7 +6827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -6674,7 +6844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -6691,7 +6861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -6708,7 +6878,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1013</v>
       </c>
@@ -6738,30 +6908,30 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6781,7 +6951,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6795,7 +6965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6809,7 +6979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -6823,7 +6993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -6843,7 +7013,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>977</v>
       </c>
@@ -6863,7 +7033,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>978</v>
       </c>
@@ -6883,7 +7053,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>979</v>
       </c>
@@ -6903,7 +7073,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>980</v>
       </c>
@@ -6923,7 +7093,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>981</v>
       </c>
@@ -6943,7 +7113,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>982</v>
       </c>
@@ -6963,7 +7133,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>983</v>
       </c>
@@ -6983,7 +7153,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>984</v>
       </c>
@@ -7003,7 +7173,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>985</v>
       </c>
@@ -7023,7 +7193,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -7043,7 +7213,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -7063,7 +7233,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>986</v>
       </c>
@@ -7083,7 +7253,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -7103,7 +7273,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>987</v>
       </c>
@@ -7123,7 +7293,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -7143,7 +7313,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>977</v>
       </c>
@@ -7163,7 +7333,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>978</v>
       </c>
@@ -7183,7 +7353,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>979</v>
       </c>
@@ -7203,7 +7373,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>980</v>
       </c>
@@ -7223,7 +7393,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>981</v>
       </c>
@@ -7243,7 +7413,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>982</v>
       </c>
@@ -7263,7 +7433,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>983</v>
       </c>
@@ -7283,7 +7453,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>984</v>
       </c>
@@ -7303,7 +7473,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>985</v>
       </c>
@@ -7323,7 +7493,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -7343,7 +7513,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -7363,7 +7533,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>986</v>
       </c>
@@ -7383,7 +7553,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -7403,7 +7573,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>987</v>
       </c>
@@ -7423,7 +7593,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7613,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>977</v>
       </c>
@@ -7463,7 +7633,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>978</v>
       </c>
@@ -7483,7 +7653,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>979</v>
       </c>
@@ -7503,7 +7673,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>980</v>
       </c>
@@ -7523,7 +7693,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>981</v>
       </c>
@@ -7543,7 +7713,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>982</v>
       </c>
@@ -7563,7 +7733,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>983</v>
       </c>
@@ -7583,7 +7753,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>984</v>
       </c>
@@ -7603,7 +7773,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>985</v>
       </c>
@@ -7623,7 +7793,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
@@ -7643,7 +7813,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -7663,7 +7833,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>986</v>
       </c>
@@ -7683,7 +7853,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
@@ -7703,7 +7873,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>987</v>
       </c>
@@ -7723,7 +7893,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7913,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>977</v>
       </c>
@@ -7763,7 +7933,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>978</v>
       </c>
@@ -7783,7 +7953,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>979</v>
       </c>
@@ -7803,7 +7973,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>980</v>
       </c>
@@ -7823,7 +7993,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>981</v>
       </c>
@@ -7843,7 +8013,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>982</v>
       </c>
@@ -7863,7 +8033,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>983</v>
       </c>
@@ -7883,7 +8053,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>984</v>
       </c>
@@ -7903,7 +8073,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>985</v>
       </c>
@@ -7923,7 +8093,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -7943,7 +8113,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -7963,7 +8133,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>986</v>
       </c>
@@ -7983,7 +8153,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -8003,7 +8173,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>987</v>
       </c>
@@ -8023,7 +8193,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -8040,7 +8210,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -8057,7 +8227,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>977</v>
       </c>
@@ -8074,7 +8244,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>1000</v>
       </c>
@@ -8091,7 +8261,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>978</v>
       </c>
@@ -8108,7 +8278,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>1001</v>
       </c>
@@ -8125,7 +8295,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>15</v>
       </c>
@@ -8142,7 +8312,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>1002</v>
       </c>
@@ -8159,7 +8329,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>979</v>
       </c>
@@ -8176,7 +8346,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>980</v>
       </c>
@@ -8193,7 +8363,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>1003</v>
       </c>
@@ -8210,7 +8380,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>1004</v>
       </c>
@@ -8227,7 +8397,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>981</v>
       </c>
@@ -8244,7 +8414,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>982</v>
       </c>
@@ -8261,7 +8431,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -8278,7 +8448,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -8295,7 +8465,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -8312,7 +8482,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -8329,7 +8499,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>983</v>
       </c>
@@ -8346,7 +8516,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>984</v>
       </c>
@@ -8363,7 +8533,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>985</v>
       </c>
@@ -8380,7 +8550,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -8397,7 +8567,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -8414,7 +8584,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>986</v>
       </c>
@@ -8431,7 +8601,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -8448,7 +8618,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -8465,7 +8635,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>987</v>
       </c>
@@ -8482,7 +8652,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1005</v>
       </c>
@@ -8499,7 +8669,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1006</v>
       </c>
@@ -8516,7 +8686,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1007</v>
       </c>
@@ -8533,7 +8703,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -8550,7 +8720,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -8567,7 +8737,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>977</v>
       </c>
@@ -8584,7 +8754,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>1000</v>
       </c>
@@ -8601,7 +8771,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>978</v>
       </c>
@@ -8618,7 +8788,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>1001</v>
       </c>
@@ -8635,7 +8805,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -8652,7 +8822,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>1002</v>
       </c>
@@ -8669,7 +8839,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>979</v>
       </c>
@@ -8686,7 +8856,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>980</v>
       </c>
@@ -8703,7 +8873,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>1003</v>
       </c>
@@ -8720,7 +8890,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>1004</v>
       </c>
@@ -8737,7 +8907,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>981</v>
       </c>
@@ -8754,7 +8924,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>982</v>
       </c>
@@ -8771,7 +8941,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -8788,7 +8958,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>56</v>
       </c>
@@ -8805,7 +8975,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -8822,7 +8992,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -8839,7 +9009,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>983</v>
       </c>
@@ -8856,7 +9026,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>984</v>
       </c>
@@ -8873,7 +9043,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>985</v>
       </c>
@@ -8890,7 +9060,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -8907,7 +9077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +9094,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>986</v>
       </c>
@@ -8941,7 +9111,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -8958,7 +9128,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>80</v>
       </c>
@@ -8975,7 +9145,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>987</v>
       </c>
@@ -8992,7 +9162,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1005</v>
       </c>
@@ -9009,7 +9179,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1006</v>
       </c>
@@ -9026,7 +9196,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1007</v>
       </c>
@@ -9056,28 +9226,28 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -9111,7 +9281,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9128,7 +9298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -9145,7 +9315,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -9162,7 +9332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -9179,7 +9349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -9196,7 +9366,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -9213,7 +9383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -9230,7 +9400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -9247,7 +9417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -9264,7 +9434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -9281,7 +9451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -9298,7 +9468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -9315,7 +9485,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -9332,7 +9502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -9349,7 +9519,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -9366,7 +9536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -9383,7 +9553,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -9400,7 +9570,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -9417,7 +9587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -9434,7 +9604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -9451,7 +9621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -9468,7 +9638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -9485,7 +9655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -9502,7 +9672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -9519,7 +9689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -9536,7 +9706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -9553,7 +9723,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -9570,7 +9740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -9587,7 +9757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -9604,7 +9774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -9621,7 +9791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -9638,7 +9808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -9655,7 +9825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -9685,29 +9855,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9721,7 +9891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9748,28 +9918,28 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9786,7 +9956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -9803,7 +9973,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9820,7 +9990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -9837,7 +10007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -9854,7 +10024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -9871,7 +10041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -9888,7 +10058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -9905,7 +10075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -9922,7 +10092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -9939,7 +10109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -9956,7 +10126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -9973,7 +10143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -9990,7 +10160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -10007,7 +10177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -10024,7 +10194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -10041,7 +10211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -10058,7 +10228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -10075,7 +10245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -10092,7 +10262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -10109,7 +10279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -10126,7 +10296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -10143,7 +10313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10160,7 +10330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -10177,7 +10347,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -10194,7 +10364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -10211,7 +10381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -10228,7 +10398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -10245,7 +10415,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -10262,7 +10432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -10279,7 +10449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -10296,7 +10466,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -10313,7 +10483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -10330,7 +10500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -10347,7 +10517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -10364,7 +10534,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -10381,7 +10551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -10398,7 +10568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -10415,7 +10585,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -10432,7 +10602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -10449,7 +10619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -10466,7 +10636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -10483,7 +10653,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -10500,7 +10670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -10517,7 +10687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -10534,7 +10704,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -10551,7 +10721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -10568,7 +10738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -10585,7 +10755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -10602,7 +10772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -10619,7 +10789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -10636,7 +10806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -10653,7 +10823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -10670,7 +10840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -10687,7 +10857,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -10704,7 +10874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -10721,7 +10891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
@@ -10738,7 +10908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -10755,7 +10925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -10772,7 +10942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -10789,7 +10959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -10806,7 +10976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -10823,7 +10993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -10840,7 +11010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -10857,7 +11027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -10874,7 +11044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -10891,7 +11061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -10908,7 +11078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -10925,7 +11095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -10942,7 +11112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -10959,7 +11129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -10976,7 +11146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -10993,7 +11163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -11010,7 +11180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -11027,7 +11197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -11044,7 +11214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -11061,7 +11231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -11078,7 +11248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -11095,7 +11265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -11112,7 +11282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -11142,30 +11312,30 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11182,7 +11352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -11199,7 +11369,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -11216,7 +11386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -11233,7 +11403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -11250,7 +11420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -11267,7 +11437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -11284,7 +11454,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -11301,7 +11471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -11318,7 +11488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -11335,7 +11505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -11352,7 +11522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -11369,7 +11539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -11386,7 +11556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -11403,7 +11573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -11420,7 +11590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -11437,7 +11607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -11454,7 +11624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -11471,7 +11641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -11488,7 +11658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -11505,7 +11675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -11522,7 +11692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -11539,7 +11709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -11556,7 +11726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -11573,7 +11743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11590,7 +11760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -11607,7 +11777,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -11624,7 +11794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -11641,7 +11811,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -11658,7 +11828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -11675,7 +11845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -11692,7 +11862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -11709,7 +11879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -11726,7 +11896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -11743,7 +11913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -11760,7 +11930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -11777,7 +11947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -11794,7 +11964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -11811,7 +11981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -11828,7 +11998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -11845,7 +12015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -11862,7 +12032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -11879,7 +12049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -11896,7 +12066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -11913,7 +12083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -11930,7 +12100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -11947,7 +12117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -11964,7 +12134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -11981,7 +12151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -11998,7 +12168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -12015,7 +12185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -12032,7 +12202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -12049,7 +12219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -12066,7 +12236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -12083,7 +12253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -12100,7 +12270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -12117,7 +12287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -12147,28 +12317,28 @@
       <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -12185,7 +12355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -12202,7 +12372,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -12219,7 +12389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -12236,7 +12406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -12253,7 +12423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -12270,7 +12440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12287,7 +12457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -12304,7 +12474,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -12321,7 +12491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -12338,7 +12508,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -12355,7 +12525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -12372,7 +12542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -12389,7 +12559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -12406,7 +12576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -12423,7 +12593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -12440,7 +12610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -12457,7 +12627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -12474,7 +12644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -12491,7 +12661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -12508,7 +12678,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -12525,7 +12695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -12542,7 +12712,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -12559,7 +12729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -12576,7 +12746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -12593,7 +12763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -12610,7 +12780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -12627,7 +12797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -12644,7 +12814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -12661,7 +12831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -12678,7 +12848,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -12695,7 +12865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -12712,7 +12882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -12729,7 +12899,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -12746,7 +12916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -12763,7 +12933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -12780,7 +12950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -12797,7 +12967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -12814,7 +12984,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -12831,7 +13001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -12848,7 +13018,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -12865,7 +13035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -12882,7 +13052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -12899,7 +13069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -12916,7 +13086,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -12933,7 +13103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -12950,7 +13120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -12967,7 +13137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -12984,7 +13154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -13001,7 +13171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -13018,7 +13188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -13035,7 +13205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -13052,7 +13222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -13069,7 +13239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -13086,7 +13256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -13103,7 +13273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -13120,7 +13290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -13137,7 +13307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -13154,7 +13324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -13171,7 +13341,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -13188,7 +13358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -13205,7 +13375,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -13222,7 +13392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -13239,7 +13409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -13256,7 +13426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -13273,7 +13443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -13290,7 +13460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -13307,7 +13477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -13324,7 +13494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -13341,7 +13511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -13358,7 +13528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -13375,7 +13545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -13392,7 +13562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
@@ -13409,7 +13579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -13426,7 +13596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
@@ -13443,7 +13613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -13460,7 +13630,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -13477,7 +13647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -13494,7 +13664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -13511,7 +13681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -13528,7 +13698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -13545,7 +13715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -13562,7 +13732,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -13579,7 +13749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
@@ -13596,7 +13766,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -13613,7 +13783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
@@ -13630,7 +13800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>34</v>
       </c>
@@ -13647,7 +13817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>34</v>
       </c>
@@ -13664,7 +13834,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>34</v>
       </c>
@@ -13681,7 +13851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -13698,7 +13868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -13715,7 +13885,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
@@ -13732,7 +13902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>42</v>
       </c>
@@ -13749,7 +13919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
@@ -13766,7 +13936,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>42</v>
       </c>
@@ -13783,7 +13953,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -13800,7 +13970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>42</v>
       </c>
@@ -13817,7 +13987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
@@ -13834,7 +14004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -13851,7 +14021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -13868,7 +14038,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
@@ -13885,7 +14055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -13902,7 +14072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -13919,7 +14089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>42</v>
       </c>
@@ -13936,7 +14106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -13953,7 +14123,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
@@ -13970,7 +14140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -13987,7 +14157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
@@ -14004,7 +14174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
@@ -14021,7 +14191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -14038,7 +14208,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -14055,7 +14225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
@@ -14072,7 +14242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -14089,7 +14259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
@@ -14106,7 +14276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -14123,7 +14293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -14140,7 +14310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -14157,7 +14327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -14174,7 +14344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -14191,7 +14361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
@@ -14208,7 +14378,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>56</v>
       </c>
@@ -14225,7 +14395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -14242,7 +14412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -14259,7 +14429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -14276,7 +14446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -14293,7 +14463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
@@ -14310,7 +14480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -14327,7 +14497,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -14344,7 +14514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -14361,7 +14531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -14378,7 +14548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -14395,7 +14565,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
@@ -14412,7 +14582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>69</v>
       </c>
@@ -14429,7 +14599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -14446,7 +14616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -14463,7 +14633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -14480,7 +14650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -14497,7 +14667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>69</v>
       </c>
@@ -14514,7 +14684,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -14531,7 +14701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -14548,7 +14718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>69</v>
       </c>
@@ -14565,7 +14735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -14582,7 +14752,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -14599,7 +14769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -14616,7 +14786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>80</v>
       </c>
@@ -14633,7 +14803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -14650,7 +14820,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>80</v>
       </c>
@@ -14667,7 +14837,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>80</v>
       </c>
@@ -14684,7 +14854,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>80</v>
       </c>
@@ -14701,7 +14871,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -14718,7 +14888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>80</v>
       </c>
@@ -14735,7 +14905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>80</v>
       </c>
@@ -14752,7 +14922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>80</v>
       </c>
@@ -14769,7 +14939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -14786,7 +14956,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>80</v>
       </c>
@@ -14803,7 +14973,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>80</v>
       </c>
@@ -14820,7 +14990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>80</v>
       </c>
@@ -14837,7 +15007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>34</v>
       </c>
@@ -14854,7 +15024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>34</v>
       </c>
@@ -14871,7 +15041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>34</v>
       </c>
@@ -14888,7 +15058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>34</v>
       </c>
@@ -14905,7 +15075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>34</v>
       </c>
@@ -14922,7 +15092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>34</v>
       </c>
@@ -14939,7 +15109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>34</v>
       </c>
@@ -14956,7 +15126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>34</v>
       </c>
@@ -14973,7 +15143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>34</v>
       </c>
@@ -14990,7 +15160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>34</v>
       </c>
@@ -15007,7 +15177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
@@ -15024,7 +15194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>34</v>
       </c>
@@ -15041,7 +15211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>34</v>
       </c>
@@ -15058,7 +15228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
@@ -15075,7 +15245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
@@ -15092,7 +15262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -15109,7 +15279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -15126,7 +15296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -15143,7 +15313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -15160,7 +15330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -15190,9 +15360,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15200,7 +15370,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15208,7 +15378,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -15216,7 +15386,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
